--- a/assets/files/excel/24217.xlsx
+++ b/assets/files/excel/24217.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookPassword="EE34" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="uk+y8m9Ym0W0zk2TQpgbOKIV0RlfVGnjeVVFMjl/dtvTYEJduvtsLfm9nzgfuZTn2jQiM0rSWNPeYPNgBqOrVw==" workbookSaltValue="JCS6Y+xSxfKj8Z68o1XoZw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -797,8 +797,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="500989952"/>
-        <c:axId val="283431328"/>
+        <c:axId val="251066504"/>
+        <c:axId val="251064544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -847,11 +847,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500989952"/>
-        <c:axId val="283431328"/>
+        <c:axId val="251066504"/>
+        <c:axId val="251064544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="500989952"/>
+        <c:axId val="251066504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +894,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283431328"/>
+        <c:crossAx val="251064544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -902,7 +902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="283431328"/>
+        <c:axId val="251064544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +953,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500989952"/>
+        <c:crossAx val="251066504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1589,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,11 +1777,11 @@
         <v>39000</v>
       </c>
       <c r="E22" s="33" t="str">
-        <f>IFERROR(IF('Оплата труда'!B22='Оплата труда (решение)'!B22,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Оплата труда'!B22-'Оплата труда (решение)'!B22)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="F22" s="33" t="str">
-        <f>IFERROR(IF('Оплата труда'!C22='Оплата труда (решение)'!C22,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Оплата труда'!C22-'Оплата труда (решение)'!C22)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -1798,11 +1798,11 @@
         <v>193000</v>
       </c>
       <c r="E23" s="33" t="str">
-        <f>IFERROR(IF('Оплата труда'!B23='Оплата труда (решение)'!B23,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Оплата труда'!B23-'Оплата труда (решение)'!B23)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="F23" s="33" t="str">
-        <f>IFERROR(IF('Оплата труда'!C23='Оплата труда (решение)'!C23,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Оплата труда'!C23-'Оплата труда (решение)'!C23)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
